--- a/changes-guide.xlsx
+++ b/changes-guide.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7759A1-D2AB-42B3-B7C1-6F67C76578A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E530111-353E-407C-B52E-51A0D76B102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5068E5B8-477E-40A4-BCFA-31527DB741B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5068E5B8-477E-40A4-BCFA-31527DB741B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$317</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="353">
   <si>
     <t>Saruman</t>
   </si>
@@ -1046,6 +1046,42 @@
   </si>
   <si>
     <t>CoE 2024 Rewording</t>
+  </si>
+  <si>
+    <t>Agburanar Ahunt</t>
+  </si>
+  <si>
+    <t>Bairanax Ahunt</t>
+  </si>
+  <si>
+    <t>Daelomin Ahunt</t>
+  </si>
+  <si>
+    <t>Ëarcaraxe Ahunt</t>
+  </si>
+  <si>
+    <t>Icy Touch</t>
+  </si>
+  <si>
+    <t>Itangast Ahunt</t>
+  </si>
+  <si>
+    <t>Leucaruth Ahunt</t>
+  </si>
+  <si>
+    <t>Morgul-knife</t>
+  </si>
+  <si>
+    <t>The Pale Sword</t>
+  </si>
+  <si>
+    <t>Scatha Ahunt</t>
+  </si>
+  <si>
+    <t>Scorba Ahunt</t>
+  </si>
+  <si>
+    <t>Smaug Ahunt</t>
   </si>
 </sst>
 </file>
@@ -1398,14 +1434,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -1540,62 +1576,58 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
@@ -1604,35 +1636,39 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1640,14 +1676,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1655,14 +1691,14 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1670,7 +1706,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
@@ -1685,16 +1721,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1702,14 +1736,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1717,48 +1753,44 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>339</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1766,43 +1798,47 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1811,13 +1847,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1826,13 +1862,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1841,28 +1877,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1871,14 +1907,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1886,14 +1922,12 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1903,14 +1937,14 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1918,13 +1952,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1933,16 +1969,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1950,29 +1984,31 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1980,44 +2016,44 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2025,95 +2061,93 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2121,35 +2155,31 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2157,29 +2187,35 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2187,16 +2223,14 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D49" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2204,31 +2238,29 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2236,9 +2268,11 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>280</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="1" t="s">
@@ -2251,31 +2285,31 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2283,14 +2317,14 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2298,28 +2332,30 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>268</v>
-      </c>
-      <c r="B57" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2328,11 +2364,11 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2343,7 +2379,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>51</v>
@@ -2358,13 +2394,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2373,12 +2409,12 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2388,7 +2424,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>51</v>
@@ -2403,103 +2439,99 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>300</v>
-      </c>
-      <c r="B64" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B66" s="3"/>
-      <c r="C66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="1" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="I68" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2507,61 +2539,63 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="I70" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B72" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2569,110 +2603,112 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="H73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="I77" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="I78" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="B80" s="3"/>
-      <c r="C80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -2681,43 +2717,39 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2730,32 +2762,30 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="1" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -2764,24 +2794,26 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="I86" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2794,99 +2826,101 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="D89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+      <c r="I92" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="1" t="s">
@@ -2903,28 +2937,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="H95" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -2933,12 +2967,12 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="4" t="s">
-        <v>271</v>
+      <c r="D97" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -2948,31 +2982,31 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="E99" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -2980,16 +3014,14 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -2997,13 +3029,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -3012,12 +3044,14 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="E102" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>51</v>
       </c>
@@ -3027,14 +3061,14 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3042,63 +3076,61 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>337</v>
-      </c>
-      <c r="B104" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3106,7 +3138,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3121,7 +3153,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>51</v>
@@ -3129,21 +3161,23 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -3153,13 +3187,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -3168,27 +3202,27 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B112" s="3"/>
-      <c r="C112" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>208</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -3198,61 +3232,61 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+      <c r="C114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E114" s="3"/>
-      <c r="F114" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E115" s="3"/>
-      <c r="F115" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>80</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C117" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -3260,61 +3294,61 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B120" s="3"/>
-      <c r="C120" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
+      <c r="I120" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="E121" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -3322,11 +3356,9 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>83</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="1" t="s">
@@ -3339,12 +3371,12 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3354,12 +3386,14 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="C124" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D124" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -3369,14 +3403,14 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -3384,9 +3418,11 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>299</v>
-      </c>
-      <c r="B126" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="1" t="s">
@@ -3399,28 +3435,28 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="C128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -3429,16 +3465,14 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>84</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D129" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -3446,14 +3480,14 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>85</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -3461,14 +3495,14 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="B131" s="3"/>
-      <c r="C131" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -3476,14 +3510,14 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -3491,13 +3525,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -3506,9 +3540,11 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>49</v>
-      </c>
-      <c r="B134" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="1" t="s">
@@ -3521,37 +3557,37 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>118</v>
-      </c>
-      <c r="B135" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
@@ -3566,13 +3602,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -3581,22 +3617,22 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="C139" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3611,48 +3647,44 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>28</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -3660,14 +3692,14 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D144" s="3"/>
-      <c r="E144" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -3675,16 +3707,14 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D145" s="3"/>
-      <c r="E145" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -3692,29 +3722,29 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
+      <c r="I146" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="B147" s="3"/>
-      <c r="C147" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="E147" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -3722,14 +3752,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>174</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="E148" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -3737,14 +3769,14 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="B149" s="3"/>
-      <c r="C149" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="E149" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -3752,29 +3784,31 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>304</v>
-      </c>
-      <c r="B150" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+      <c r="E150" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -3782,10 +3816,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="1" t="s">
         <v>51</v>
@@ -3797,12 +3833,12 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -3812,12 +3848,12 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>87</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C154" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -3827,13 +3863,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="C155" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -3842,11 +3878,11 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="1" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -3857,44 +3893,44 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
+      <c r="I157" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
+      <c r="D158" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="B159" s="3"/>
-      <c r="C159" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -3902,12 +3938,12 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>88</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C160" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -3917,13 +3953,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>220</v>
-      </c>
-      <c r="B161" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C161" s="3"/>
-      <c r="D161" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -3932,16 +3968,14 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D162" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -3949,14 +3983,14 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="C163" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D163" s="3"/>
-      <c r="E163" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -3964,27 +3998,25 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
+      <c r="D164" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B165" s="3"/>
-      <c r="C165" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="1" t="s">
@@ -3996,59 +4028,57 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>29</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
+      <c r="H166" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-      <c r="F167" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>148</v>
-      </c>
-      <c r="B168" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="4" t="s">
-        <v>271</v>
+      <c r="D169" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -4058,12 +4088,12 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>34</v>
-      </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="1" t="s">
         <v>51</v>
@@ -4075,14 +4105,14 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -4090,37 +4120,39 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="H172" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>89</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C173" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
+      <c r="F173" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>51</v>
@@ -4137,44 +4169,44 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
+      <c r="F175" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="B176" s="3"/>
-      <c r="C176" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="H176" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D177" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -4182,31 +4214,31 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>90</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="D179" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -4214,24 +4246,22 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="B180" s="3"/>
-      <c r="C180" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
-      <c r="H180" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>51</v>
@@ -4246,51 +4276,45 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>137</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>93</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="1" t="s">
-        <v>249</v>
+      <c r="D183" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E183" s="3"/>
-      <c r="F183" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C184" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -4299,14 +4323,14 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>94</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+      <c r="E185" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -4314,31 +4338,31 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>324</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
-      <c r="I186" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+      <c r="E187" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -4346,24 +4370,24 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>323</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C188" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="H188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>322</v>
+        <v>91</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>51</v>
@@ -4378,28 +4402,34 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>326</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
+      <c r="F190" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
-      <c r="I190" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>132</v>
-      </c>
-      <c r="B191" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
+      <c r="D191" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E191" s="3"/>
       <c r="F191" s="1" t="s">
         <v>51</v>
@@ -4410,14 +4440,14 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D192" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -4425,12 +4455,12 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>292</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -4440,22 +4470,24 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>308</v>
-      </c>
-      <c r="B194" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C194" s="3"/>
-      <c r="D194" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
+      <c r="I194" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>51</v>
@@ -4470,31 +4502,31 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>224</v>
-      </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
+      <c r="I196" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -4502,7 +4534,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>51</v>
@@ -4513,26 +4545,28 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+      <c r="I198" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4547,11 +4581,11 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="1" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -4562,13 +4596,13 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="B202" s="3"/>
-      <c r="C202" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -4577,31 +4611,29 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>133</v>
-      </c>
-      <c r="B203" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
-      <c r="F203" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>12</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C204" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D204" s="3"/>
-      <c r="E204" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -4609,12 +4641,12 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>42</v>
-      </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="1" t="s">
         <v>51</v>
@@ -4626,17 +4658,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -4645,14 +4673,14 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c r="B207" s="3"/>
-      <c r="C207" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+      <c r="E207" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -4660,11 +4688,9 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="1" t="s">
@@ -4677,10 +4703,12 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="C209" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -4690,46 +4718,46 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="C210" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
-      <c r="F210" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>35</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+      <c r="E212" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -4737,33 +4765,35 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>99</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C213" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C214" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -4771,11 +4801,9 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>211</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B215" s="3"/>
       <c r="C215" s="1" t="s">
         <v>51</v>
       </c>
@@ -4788,14 +4816,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>196</v>
-      </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+      <c r="E216" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -4803,48 +4833,44 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>100</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
-      <c r="F217" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>262</v>
-      </c>
-      <c r="B219" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -4852,14 +4878,14 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>286</v>
-      </c>
-      <c r="B220" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -4867,91 +4893,101 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>176</v>
-      </c>
-      <c r="B221" s="3"/>
-      <c r="C221" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
+      <c r="F221" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>311</v>
-      </c>
-      <c r="B222" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+      <c r="E222" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
-      <c r="I222" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="I222" s="3"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>146</v>
-      </c>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="4" t="s">
-        <v>271</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D223" s="3"/>
       <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
+      <c r="F223" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
+      <c r="C224" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D224" s="3"/>
-      <c r="E224" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
-      <c r="I224" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I224" s="3"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>197</v>
-      </c>
-      <c r="B225" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C225" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
+      <c r="F225" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
-      <c r="D226" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -4959,15 +4995,13 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>102</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D227" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -4976,27 +5010,27 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E228" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>101</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C229" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="B229" s="3"/>
+      <c r="C229" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -5006,44 +5040,40 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>103</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
+      <c r="I230" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
+      <c r="D231" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E231" s="3"/>
-      <c r="F231" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>225</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="1" t="s">
         <v>51</v>
@@ -5051,18 +5081,20 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
+      <c r="I232" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
+      <c r="C233" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D233" s="3"/>
-      <c r="E233" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
@@ -5070,13 +5102,13 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B234" s="3"/>
-      <c r="C234" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -5085,48 +5117,46 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>142</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
-      <c r="F235" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B236" s="3"/>
-      <c r="C236" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C236" s="3"/>
       <c r="D236" s="3"/>
-      <c r="E236" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
-      <c r="E237" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -5134,22 +5164,22 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>161</v>
-      </c>
-      <c r="B238" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
-      <c r="H238" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5164,7 +5194,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>51</v>
@@ -5183,110 +5213,106 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="E241" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
-      <c r="I241" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I241" s="3"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="1" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
-      <c r="I242" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="I242" s="3"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B243" s="3"/>
-      <c r="C243" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
+      <c r="F243" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
-      <c r="I243" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="I243" s="3"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>328</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
+      <c r="F244" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="D245" s="3"/>
       <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
+      <c r="F245" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G245" s="3"/>
-      <c r="H245" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H245" s="3"/>
       <c r="I245" s="3"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D246" s="3"/>
       <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
+      <c r="F246" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E247" s="3"/>
+      <c r="C247" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
@@ -5294,9 +5320,11 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
-      </c>
-      <c r="B248" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="1" t="s">
@@ -5309,48 +5337,48 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
-      <c r="D249" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="H249" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I249" s="3"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>106</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
       <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
+      <c r="F250" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>223</v>
-      </c>
-      <c r="B251" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+      <c r="E251" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
@@ -5358,60 +5386,62 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>92</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
-      <c r="E252" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
+      <c r="I252" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
+      <c r="C253" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
-      <c r="F253" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
+      <c r="I253" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="1" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
+      <c r="I254" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>256</v>
-      </c>
-      <c r="B255" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C255" s="3"/>
-      <c r="D255" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -5420,42 +5450,44 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
+      <c r="D256" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E256" s="3"/>
-      <c r="F256" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F256" s="3"/>
       <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
+      <c r="H256" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I256" s="3"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
+      <c r="D257" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E257" s="3"/>
-      <c r="F257" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
@@ -5465,28 +5497,28 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E259" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3"/>
-      <c r="C260" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -5495,48 +5527,50 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C261" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
+      <c r="C262" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
-      <c r="F262" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>229</v>
-      </c>
-      <c r="B263" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C263" s="3"/>
-      <c r="D263" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -5544,31 +5578,29 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
-      <c r="D264" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D264" s="3"/>
       <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
+      <c r="F264" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>39</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C265" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="B265" s="3"/>
+      <c r="C265" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D265" s="3"/>
-      <c r="E265" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -5576,118 +5608,112 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>147</v>
+        <v>349</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
-      <c r="D266" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="D266" s="3"/>
       <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
+      <c r="F266" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
-      <c r="I266" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I266" s="3"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
+      <c r="D267" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E267" s="3"/>
-      <c r="F267" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>107</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
-      <c r="E268" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
-      <c r="E269" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
+      <c r="D270" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E270" s="3"/>
-      <c r="F270" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F270" s="3"/>
       <c r="G270" s="3"/>
-      <c r="H270" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H270" s="3"/>
       <c r="I270" s="3"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>109</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
+      <c r="F271" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
+      <c r="C272" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
-      <c r="F272" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>51</v>
@@ -5697,33 +5723,37 @@
       <c r="E273" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F273" s="3"/>
+      <c r="F273" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
+      <c r="F274" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B275" s="3"/>
-      <c r="C275" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -5732,30 +5762,28 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
+      <c r="D276" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
-      <c r="I276" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I276" s="3"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C277" s="3"/>
-      <c r="D277" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="D277" s="3"/>
       <c r="E277" s="1" t="s">
         <v>51</v>
       </c>
@@ -5766,7 +5794,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5777,35 +5805,37 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
-      <c r="I278" s="3"/>
+      <c r="I278" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B279" s="3"/>
-      <c r="C279" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
+      <c r="F279" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G279" s="3"/>
-      <c r="H279" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H279" s="3"/>
       <c r="I279" s="3"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
+      <c r="E280" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
@@ -5813,14 +5843,14 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
-      <c r="D281" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -5828,33 +5858,31 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>112</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
-      <c r="E282" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="H282" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I282" s="3"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
-      <c r="E283" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
@@ -5862,42 +5890,42 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
+      <c r="F284" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G284" s="3"/>
-      <c r="H284" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H284" s="3"/>
       <c r="I284" s="3"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>153</v>
-      </c>
-      <c r="B285" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
+      <c r="E285" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
-      <c r="H285" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H285" s="3"/>
       <c r="I285" s="3"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B286" s="3"/>
-      <c r="C286" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
@@ -5907,7 +5935,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="1" t="s">
@@ -5915,40 +5943,40 @@
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
-      <c r="F287" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B288" s="3"/>
-      <c r="C288" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
-      <c r="I288" s="3"/>
+      <c r="I288" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>261</v>
-      </c>
-      <c r="B289" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C289" s="3"/>
       <c r="D289" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E289" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -5956,13 +5984,13 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="B290" s="3"/>
-      <c r="C290" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -5971,28 +5999,30 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="1" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
+      <c r="H291" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I291" s="3"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>278</v>
-      </c>
-      <c r="B292" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -6001,14 +6031,14 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D293" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
@@ -6016,7 +6046,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>51</v>
@@ -6024,7 +6054,7 @@
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -6033,60 +6063,60 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>162</v>
-      </c>
-      <c r="B295" s="3"/>
-      <c r="C295" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C295" s="3"/>
       <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
+      <c r="E295" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
-      <c r="H295" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H295" s="3"/>
       <c r="I295" s="3"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="B296" s="3"/>
-      <c r="C296" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
+      <c r="H296" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I296" s="3"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
-      <c r="E297" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="H297" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I297" s="3"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
-      <c r="D298" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="C298" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -6095,29 +6125,31 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>115</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C299" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="B299" s="3"/>
+      <c r="C299" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D299" s="3"/>
-      <c r="E299" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>116</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C300" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="B300" s="3"/>
+      <c r="C300" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
@@ -6127,31 +6159,29 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
+      <c r="D301" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E301" s="3"/>
-      <c r="F301" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>117</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C302" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="B302" s="3"/>
+      <c r="C302" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D302" s="3"/>
-      <c r="E302" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E302" s="3"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
@@ -6159,33 +6189,29 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
-      <c r="D303" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="C303" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
-      <c r="I303" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I303" s="3"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>247</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D304" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
@@ -6193,22 +6219,214 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
     </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>114</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>162</v>
+      </c>
+      <c r="B307" s="3"/>
+      <c r="C307" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I307" s="3"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>212</v>
+      </c>
+      <c r="B308" s="3"/>
+      <c r="C308" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>46</v>
+      </c>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>230</v>
+      </c>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>115</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>116</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>334</v>
+      </c>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>117</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>166</v>
+      </c>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+      <c r="I315" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>247</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>279</v>
+      </c>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I307">
-    <sortCondition ref="A2:A307"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I319">
+    <sortCondition ref="A2:A319"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/changes-guide.xlsx
+++ b/changes-guide.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E530111-353E-407C-B52E-51A0D76B102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7542CD-E287-445A-B4A0-939C9B2EB630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5068E5B8-477E-40A4-BCFA-31527DB741B5}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$321</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="358">
   <si>
     <t>Saruman</t>
   </si>
@@ -1082,6 +1082,21 @@
   </si>
   <si>
     <t>Smaug Ahunt</t>
+  </si>
+  <si>
+    <t>Orc-mail</t>
+  </si>
+  <si>
+    <t>Active condition without allies</t>
+  </si>
+  <si>
+    <t>Bûrat</t>
+  </si>
+  <si>
+    <t>Tûma</t>
+  </si>
+  <si>
+    <t>Wûluag</t>
   </si>
 </sst>
 </file>
@@ -1434,14 +1449,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -2031,29 +2046,29 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2061,44 +2076,44 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2106,62 +2121,62 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2170,16 +2185,14 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2187,50 +2200,52 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2238,46 +2253,44 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2285,13 +2298,15 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2300,15 +2315,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="1" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2317,9 +2330,11 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>280</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="1" t="s">
@@ -2332,44 +2347,44 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>289</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2379,12 +2394,12 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2394,13 +2409,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2409,13 +2424,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2424,12 +2439,12 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2439,7 +2454,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>51</v>
@@ -2454,7 +2469,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>51</v>
@@ -2469,7 +2484,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>51</v>
@@ -2484,54 +2499,54 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2541,29 +2556,27 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="1" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B70" s="3"/>
-      <c r="C70" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="1" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
@@ -2575,74 +2588,76 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="1" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="I72" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>281</v>
-      </c>
-      <c r="B73" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2657,22 +2672,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2682,34 +2697,34 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="1" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="I79" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -2717,76 +2732,74 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -2794,39 +2807,39 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="E86" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>51</v>
@@ -2843,39 +2856,41 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D90" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2890,22 +2905,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2913,67 +2928,67 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="B94" s="3"/>
-      <c r="C94" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="H94" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="E95" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="H96" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>231</v>
-      </c>
-      <c r="B97" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -2982,16 +2997,14 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="B98" s="3"/>
-      <c r="C98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -2999,10 +3012,12 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="1" t="s">
         <v>51</v>
@@ -3014,14 +3029,14 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3029,12 +3044,12 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="4" t="s">
-        <v>271</v>
+      <c r="D101" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -3044,48 +3059,46 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D102" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="E103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3093,14 +3106,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>187</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="E105" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3108,56 +3123,54 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>77</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3170,30 +3183,32 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -3202,45 +3217,43 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="C112" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>150</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3249,10 +3262,12 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D115" s="1" t="s">
         <v>249</v>
       </c>
@@ -3264,13 +3279,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="B116" s="3"/>
-      <c r="C116" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -3279,7 +3294,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
@@ -3294,22 +3309,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="C118" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3324,41 +3339,41 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>80</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+      <c r="I121" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="1" t="s">
@@ -3371,14 +3386,14 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>81</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="E123" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -3386,15 +3401,13 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>214</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3403,13 +3416,15 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -3418,16 +3433,14 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -3435,43 +3448,45 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>345</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="B128" s="3"/>
-      <c r="C128" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="C129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -3480,14 +3495,14 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D130" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -3495,7 +3510,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3510,13 +3525,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="1" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -3525,14 +3540,14 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -3540,16 +3555,14 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D134" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -3557,14 +3570,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="E135" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -3572,43 +3587,43 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>346</v>
-      </c>
-      <c r="B136" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="C138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -3617,13 +3632,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B139" s="3"/>
-      <c r="C139" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -3632,14 +3647,14 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="C140" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D140" s="3"/>
-      <c r="E140" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -3647,22 +3662,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>118</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3677,26 +3692,26 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="1" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -3707,7 +3722,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="1" t="s">
@@ -3722,41 +3737,39 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="C146" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
+      <c r="I147" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>28</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="1" t="s">
@@ -3769,13 +3782,15 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>283</v>
-      </c>
-      <c r="B149" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -3784,11 +3799,9 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="1" t="s">
@@ -3801,13 +3814,15 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="1" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -3816,12 +3831,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B152" s="3"/>
-      <c r="C152" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="1" t="s">
         <v>51</v>
@@ -3833,14 +3846,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>86</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C153" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="E153" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -3848,12 +3863,12 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>296</v>
-      </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -3863,11 +3878,11 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>296</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="1" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -3878,7 +3893,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="1" t="s">
@@ -3893,44 +3908,44 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
+      <c r="I158" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D159" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -3938,14 +3953,14 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="B160" s="3"/>
-      <c r="C160" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="E160" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -3953,12 +3968,12 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>87</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C161" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -3968,13 +3983,13 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>219</v>
-      </c>
-      <c r="B162" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -3983,13 +3998,13 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B163" s="3"/>
-      <c r="C163" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -3998,13 +4013,13 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C164" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4013,57 +4028,57 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="D165" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E165" s="3"/>
-      <c r="F165" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
+      <c r="F166" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B167" s="3"/>
-      <c r="C167" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+      <c r="H167" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C168" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -4073,13 +4088,13 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>220</v>
-      </c>
-      <c r="B169" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C169" s="3"/>
-      <c r="D169" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -4088,16 +4103,14 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D170" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -4105,9 +4118,11 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>285</v>
-      </c>
-      <c r="B171" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="1" t="s">
@@ -4120,110 +4135,108 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="E172" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="B173" s="3"/>
-      <c r="C173" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+      <c r="H173" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>29</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C174" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D174" s="3"/>
-      <c r="E174" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>136</v>
-      </c>
-      <c r="B175" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
+      <c r="F176" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="H177" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I177" s="3"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="B178" s="3"/>
-      <c r="C178" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -4231,14 +4244,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E179" s="3"/>
+      <c r="C179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -4246,12 +4261,12 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -4261,13 +4276,13 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>89</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -4276,16 +4291,14 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -4293,14 +4306,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>275</v>
-      </c>
-      <c r="B183" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -4308,13 +4323,13 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B184" s="3"/>
-      <c r="C184" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -4323,14 +4338,14 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="C185" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -4338,97 +4353,93 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E186" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>90</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>193</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+      <c r="E188" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>91</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C189" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="H189" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I189" s="3"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>137</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>93</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C191" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D191" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="1" t="s">
@@ -4440,54 +4451,58 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>270</v>
-      </c>
-      <c r="B192" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C192" s="3"/>
       <c r="D192" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
+      <c r="F192" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>94</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C193" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
+      <c r="I193" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>324</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
+      <c r="D194" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
-      <c r="I194" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>51</v>
@@ -4502,7 +4517,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>51</v>
@@ -4519,7 +4534,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>51</v>
@@ -4534,7 +4549,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>51</v>
@@ -4551,59 +4566,61 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>132</v>
-      </c>
-      <c r="B199" s="3"/>
+        <v>322</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-      <c r="F199" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3</v>
-      </c>
-      <c r="B200" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
+      <c r="I200" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="B201" s="3"/>
-      <c r="C201" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+      <c r="F201" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -4611,12 +4628,12 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>95</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C203" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -4626,13 +4643,13 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="B204" s="3"/>
-      <c r="C204" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -4641,16 +4658,14 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -4658,12 +4673,12 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>96</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C206" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -4673,9 +4688,11 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="1" t="s">
@@ -4688,14 +4705,14 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>41</v>
-      </c>
-      <c r="B208" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -4703,14 +4720,14 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="B209" s="3"/>
-      <c r="C209" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+      <c r="E209" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -4718,14 +4735,14 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="B210" s="3"/>
-      <c r="C210" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="E210" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -4733,31 +4750,29 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="C211" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
-      <c r="F211" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>12</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C212" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D212" s="3"/>
-      <c r="E212" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -4765,35 +4780,31 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B213" s="3"/>
-      <c r="C213" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -4801,14 +4812,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="1" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+      <c r="E215" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -4816,16 +4829,18 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C216" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -4833,10 +4848,12 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="C217" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -4846,31 +4863,29 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>131</v>
-      </c>
-      <c r="B218" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E218" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>35</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -4878,48 +4893,46 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>98</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
+      <c r="F220" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E221" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -4927,14 +4940,12 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="1" t="s">
@@ -4946,14 +4957,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>196</v>
-      </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
+      <c r="E224" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -4961,7 +4974,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>51</v>
@@ -4980,14 +4993,14 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="C226" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D226" s="3"/>
-      <c r="E226" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -4995,22 +5008,26 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>262</v>
-      </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D227" s="3"/>
       <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
+      <c r="F227" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -5025,13 +5042,13 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="B229" s="3"/>
-      <c r="C229" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -5040,28 +5057,28 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
+      <c r="E230" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="I230" s="3"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="C231" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -5070,30 +5087,28 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
-      <c r="E232" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="B233" s="3"/>
-      <c r="C233" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -5102,26 +5117,26 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
+      <c r="I234" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>102</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B235" s="3"/>
       <c r="C235" s="1" t="s">
         <v>51</v>
       </c>
@@ -5134,27 +5149,29 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
+      <c r="D236" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E236" s="3"/>
-      <c r="F236" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C237" s="3"/>
+      <c r="C237" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -5164,48 +5181,44 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>103</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
+      <c r="F238" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>119</v>
-      </c>
-      <c r="B239" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
-      <c r="F239" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C240" s="3"/>
       <c r="D240" s="3"/>
-      <c r="E240" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -5213,29 +5226,33 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
-      <c r="E241" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>195</v>
-      </c>
-      <c r="B242" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C242" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="E242" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -5243,37 +5260,37 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E243" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
+      <c r="C244" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
-      <c r="F244" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>351</v>
+        <v>142</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -5288,7 +5305,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -5303,177 +5320,175 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="B247" s="3"/>
-      <c r="C247" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C247" s="3"/>
       <c r="D247" s="3"/>
-      <c r="E247" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>104</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
-      <c r="E248" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
+      <c r="C249" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="E249" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
-      <c r="H249" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H249" s="3"/>
       <c r="I249" s="3"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>121</v>
-      </c>
-      <c r="B250" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E250" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>105</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
       <c r="D251" s="3"/>
-      <c r="E251" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
+      <c r="H251" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I251" s="3"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>306</v>
+        <v>121</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
+      <c r="F252" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I252" s="3"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>171</v>
-      </c>
-      <c r="B253" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C253" s="1" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+      <c r="E253" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="I253" s="3"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="B254" s="3"/>
-      <c r="C254" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="1" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>328</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C255" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
+      <c r="I255" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="C256" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
-      <c r="H256" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>253</v>
-      </c>
-      <c r="B257" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C257" s="3"/>
-      <c r="D257" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -5482,29 +5497,31 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
+      <c r="H258" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I258" s="3"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D259" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
@@ -5512,12 +5529,12 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
@@ -5527,18 +5544,14 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>106</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E261" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -5546,13 +5559,13 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B262" s="3"/>
-      <c r="C262" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -5561,16 +5574,18 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C263" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -5578,29 +5593,31 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+      <c r="C264" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
-      <c r="F264" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>213</v>
-      </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C265" s="3"/>
       <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+      <c r="E265" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -5608,7 +5625,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -5623,22 +5640,24 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C267" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D267" s="3"/>
       <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
+      <c r="F267" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -5653,37 +5672,37 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
+      <c r="D269" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E269" s="3"/>
-      <c r="F269" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D270" s="3"/>
       <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
+      <c r="F270" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -5698,13 +5717,13 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="B272" s="3"/>
-      <c r="C272" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -5713,16 +5732,12 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>113</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
-      <c r="E273" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E273" s="3"/>
       <c r="F273" s="1" t="s">
         <v>51</v>
       </c>
@@ -5732,61 +5747,63 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
+      <c r="C274" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
-      <c r="F274" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>229</v>
-      </c>
-      <c r="B275" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C275" s="3"/>
-      <c r="D275" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D276" s="3"/>
       <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
+      <c r="F276" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>39</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B277" s="3"/>
       <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D277" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
@@ -5794,95 +5811,95 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
-      <c r="D278" s="4" t="s">
-        <v>271</v>
+      <c r="D278" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
-      <c r="I278" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I278" s="3"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>135</v>
-      </c>
-      <c r="B279" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E279" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>107</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B280" s="3"/>
       <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D280" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
+      <c r="I280" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
-      <c r="E281" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>108</v>
-      </c>
-      <c r="B282" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E282" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F282" s="3"/>
       <c r="G282" s="3"/>
-      <c r="H282" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H282" s="3"/>
       <c r="I282" s="3"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>109</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
+      <c r="E283" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
@@ -5890,7 +5907,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -5900,21 +5917,21 @@
         <v>51</v>
       </c>
       <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+      <c r="H284" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I284" s="3"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
-      <c r="E285" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
@@ -5922,27 +5939,31 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
+      <c r="F286" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>221</v>
-      </c>
-      <c r="B287" s="3"/>
-      <c r="C287" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C287" s="3"/>
       <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
+      <c r="E287" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
@@ -5950,7 +5971,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5959,24 +5980,18 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
-      <c r="I288" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I288" s="3"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B289" s="3"/>
+      <c r="C289" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -5984,46 +5999,48 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
-      <c r="D290" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
+      <c r="I290" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="B291" s="3"/>
-      <c r="C291" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
+      <c r="F291" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G291" s="3"/>
-      <c r="H291" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H291" s="3"/>
       <c r="I291" s="3"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
+      <c r="D292" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
@@ -6031,12 +6048,12 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="1" t="s">
-        <v>263</v>
+      <c r="D293" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
@@ -6046,33 +6063,31 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>112</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C294" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B294" s="3"/>
+      <c r="C294" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D294" s="3"/>
-      <c r="E294" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
+      <c r="H294" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I294" s="3"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
-      <c r="E295" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -6080,44 +6095,48 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
+      <c r="D296" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
-      <c r="H296" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H296" s="3"/>
       <c r="I296" s="3"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>153</v>
-      </c>
-      <c r="B297" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
+      <c r="E297" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
-      <c r="H297" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H297" s="3"/>
       <c r="I297" s="3"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>177</v>
-      </c>
-      <c r="B298" s="3"/>
-      <c r="C298" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C298" s="3"/>
       <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
+      <c r="E298" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
@@ -6125,47 +6144,43 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B299" s="3"/>
-      <c r="C299" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
-      <c r="F299" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I299" s="3"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="B300" s="3"/>
-      <c r="C300" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+      <c r="H300" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I300" s="3"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
-      <c r="D301" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C301" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
@@ -6174,7 +6189,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="B302" s="3"/>
       <c r="C302" s="1" t="s">
@@ -6182,14 +6197,18 @@
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
-      <c r="G302" s="3"/>
+      <c r="F302" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="1" t="s">
@@ -6204,12 +6223,12 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="4" t="s">
-        <v>271</v>
+      <c r="D304" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
@@ -6219,14 +6238,14 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
+      <c r="C305" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D305" s="3"/>
-      <c r="E305" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E305" s="3"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
@@ -6234,16 +6253,14 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>114</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C306" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="B306" s="3"/>
+      <c r="C306" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D306" s="3"/>
-      <c r="E306" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="E306" s="3"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
@@ -6251,31 +6268,29 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="B307" s="3"/>
-      <c r="C307" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
-      <c r="H307" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H307" s="3"/>
       <c r="I307" s="3"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="B308" s="3"/>
-      <c r="C308" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C308" s="3"/>
       <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
+      <c r="E308" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -6283,13 +6298,15 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>46</v>
-      </c>
-      <c r="B309" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="1" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
@@ -6298,31 +6315,31 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="C310" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
+      <c r="H310" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I310" s="3"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>115</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C311" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="B311" s="3"/>
+      <c r="C311" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D311" s="3"/>
-      <c r="E311" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E311" s="3"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
@@ -6330,14 +6347,14 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>116</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
+      <c r="E312" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
@@ -6345,22 +6362,22 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
+      <c r="D313" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E313" s="3"/>
-      <c r="F313" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>51</v>
@@ -6377,56 +6394,118 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>166</v>
-      </c>
-      <c r="B315" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C315" s="3"/>
-      <c r="D315" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
-      <c r="I315" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="I315" s="3"/>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>247</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>279</v>
-      </c>
-      <c r="B317" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C317" s="3"/>
-      <c r="D317" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
     </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>166</v>
+      </c>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>247</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>357</v>
+      </c>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>279</v>
+      </c>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I319">
-    <sortCondition ref="A2:A319"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I323">
+    <sortCondition ref="A2:A323"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
